--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2301728.257647658</v>
+        <v>2297715.647633666</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9521348.128946904</v>
+        <v>9521348.128946902</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.3109942888252</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247824</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>111.7244765928107</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>122.8279772025245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.41653174045924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.80685860554387</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>90.52240030468828</v>
       </c>
       <c r="U7" t="n">
-        <v>231.0739464408181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222602</v>
       </c>
       <c r="G8" t="n">
-        <v>388.7829472802545</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>35.97899192967662</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.5873298926974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>141.2342243404105</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>134.0367616438388</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>168.999744800192</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>10.74993283584276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>12.74007641193525</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695629</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.29785174158872</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>74.41917683133092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.30088041041688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>142.3575218158275</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.10799870228475</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>128.3548363691463</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.17792077063358</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>185.6271053876774</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.36266849663015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199009</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.010158258597</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>915.7444596518465</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>529.9562070536022</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.0847133907091</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205413</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>1010.525757364479</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y4" t="n">
-        <v>789.7331782209488</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3226.811014936904</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3020.833267321127</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3020.833267321127</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4755,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="U7" t="n">
-        <v>1190.603564534476</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V7" t="n">
-        <v>935.919076328589</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W7" t="n">
-        <v>935.919076328589</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287317</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.470666346906</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>912.2049677401551</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>912.2049677401551</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F8" t="n">
-        <v>501.2190629505475</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794323</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263129</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287317</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1890.95213199791</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1890.95213199791</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1601.849265123554</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271513</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432834</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049275</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925917</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>625.3800815101986</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>478.4901340122882</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>311.2940347271681</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798835963</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556895</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433537</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433537</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>415.5933575433537</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>248.3972582582336</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6854271004317</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038291</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797692</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832658</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487562</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510503</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854701</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648814</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611853</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138361</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138361</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6007,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>639.6425904082687</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138361</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703059</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4077.535672747197</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3822.85118454131</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3822.85118454131</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3594.861633643293</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6785,22 +6785,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2325.262835688941</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2105.661370711882</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.58614405608</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1561.901655850193</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.3306680894883</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>820.3944851615814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>670.2778457492457</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>522.3647521668526</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1170.979132919728</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2009.560418833348</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1720.485192177545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5.199738306158622</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.257951202385129</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>117.1847295890521</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>68.52575990663028</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>72.1196935303861</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.1654765207639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.5310997715204</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.8269525734167</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>126.9182872993598</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2431272522977</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>31.77834493961083</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>146.346986892407</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819955.4229552647</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819955.4229552646</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675038</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.84288319403</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319404</v>
       </c>
-      <c r="D4" t="n">
-        <v>92793.8428831941</v>
-      </c>
       <c r="E4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184267</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184267</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.2017739681</v>
+        <v>-913691.201773967</v>
       </c>
       <c r="C6" t="n">
-        <v>415053.5439536254</v>
+        <v>415053.543953625</v>
       </c>
       <c r="D6" t="n">
-        <v>415053.5439536253</v>
+        <v>415053.5439536252</v>
       </c>
       <c r="E6" t="n">
-        <v>165218.1500243992</v>
+        <v>164870.7707700426</v>
       </c>
       <c r="F6" t="n">
-        <v>490630.6118317546</v>
+        <v>490283.2325773974</v>
       </c>
       <c r="G6" t="n">
-        <v>490630.6118317545</v>
+        <v>490283.2325773973</v>
       </c>
       <c r="H6" t="n">
-        <v>490630.6118317542</v>
+        <v>490283.2325773975</v>
       </c>
       <c r="I6" t="n">
-        <v>490630.6118317543</v>
+        <v>490283.2325773973</v>
       </c>
       <c r="J6" t="n">
-        <v>273099.4094344766</v>
+        <v>272752.0301801204</v>
       </c>
       <c r="K6" t="n">
-        <v>490630.6118317543</v>
+        <v>490283.2325773973</v>
       </c>
       <c r="L6" t="n">
-        <v>490630.6118317546</v>
+        <v>490283.2325773978</v>
       </c>
       <c r="M6" t="n">
-        <v>405575.5838962426</v>
+        <v>405228.2046418855</v>
       </c>
       <c r="N6" t="n">
-        <v>490630.6118317544</v>
+        <v>490283.2325773974</v>
       </c>
       <c r="O6" t="n">
-        <v>490630.6118317545</v>
+        <v>490283.2325773974</v>
       </c>
       <c r="P6" t="n">
-        <v>490630.611831754</v>
+        <v>490283.2325773974</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.56505145288628</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>68.10750358912661</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>102.8816781865127</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.3173099230214</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.38090318263197</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0265489714809</v>
       </c>
       <c r="U7" t="n">
-        <v>55.13789176479477</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194513</v>
       </c>
       <c r="G8" t="n">
-        <v>22.13877837319893</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>153.7900334017653</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.99732345939742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.937311077932183e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.823865858724556e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-5.220349312471573e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>314.3020503687028</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>351.5042614518788</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,10 +34210,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>225.4828684302372</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096298</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>171.7058059242583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36770,7 +36770,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066197</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>208.9080170074344</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>82.88662398579278</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297715.647633666</v>
+        <v>2299476.17793645</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9521348.128946902</v>
+        <v>9521348.128946904</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>133.3353942071033</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.7244765928107</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>135.259425062653</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>97.80685860554387</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>357.0621555633455</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>90.52240030468828</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>33.38304376058745</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>133.0746940382277</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>35.97899192967662</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>141.2342243404105</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>168.999744800192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474254</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>68.17501931583779</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>91.40260836685067</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>128.3548363691463</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>23.6255456814127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>112.5005260950196</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1813.303537713132</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1455.037839106381</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1069.249586508137</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>658.2636817185296</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>243.1912315635261</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732712</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297411</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3226.811014936904</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3020.833267321127</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3020.833267321127</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2689.770379977556</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2689.770379977556</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1554.341438688313</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1554.341438688313</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1554.341438688313</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1554.341438688313</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1326.351887790296</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1712.341567565136</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2862.546497866149</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2098.941407629258</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>814.7868627196261</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>645.8506797917192</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>495.7340403793835</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>347.8209467969904</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>200.93099929908</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1890.95213199791</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T10" t="n">
-        <v>1890.95213199791</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U10" t="n">
-        <v>1601.849265123554</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.164776917667</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.164776917667</v>
+        <v>1224.424878447883</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>996.4353275498659</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>996.4353275498659</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.2677182139842</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1873.799971328619</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1619.115483122732</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.698313085771</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.708762187754</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.9161830442239</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5773,19 +5773,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.780207734479</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1336.363037697518</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1108.373486799501</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.5809076559709</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2266.280484787188</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>5.199738306158622</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>117.1847295890521</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>72.1196935303861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>68.52575990662497</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319414</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26450,16 +26450,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.201773967</v>
+        <v>-913691.2017739677</v>
       </c>
       <c r="C6" t="n">
+        <v>415053.5439536255</v>
+      </c>
+      <c r="D6" t="n">
         <v>415053.543953625</v>
       </c>
-      <c r="D6" t="n">
-        <v>415053.5439536252</v>
-      </c>
       <c r="E6" t="n">
-        <v>164870.7707700426</v>
+        <v>165183.4120989629</v>
       </c>
       <c r="F6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063184</v>
       </c>
       <c r="G6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063191</v>
       </c>
       <c r="H6" t="n">
-        <v>490283.2325773975</v>
+        <v>490595.8739063184</v>
       </c>
       <c r="I6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="J6" t="n">
-        <v>272752.0301801204</v>
+        <v>273064.6715090416</v>
       </c>
       <c r="K6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="L6" t="n">
-        <v>490283.2325773978</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="M6" t="n">
-        <v>405228.2046418855</v>
+        <v>405540.8459708068</v>
       </c>
       <c r="N6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="O6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="P6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063187</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>161.2723701802172</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003795</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.10750358912661</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.38090318263197</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>12.66894511512356</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0265489714809</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>331.8898480104201</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194513</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>32.95111422080055</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>153.7900334017653</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987485</v>
@@ -31630,10 +31630,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q9" t="n">
         <v>159.233896612727</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
